--- a/output/SMT/DeepSeek-V3/error analysis_no violation feedback_20250714.xlsx
+++ b/output/SMT/DeepSeek-V3/error analysis_no violation feedback_20250714.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiqimei/Desktop/Academic/UPenn/CCB Lab/Project/calendar-planning/output/SMT/DeepSeek-V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4EF81D-BAEA-7647-A8CB-60C32B37127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC1621A-9AAD-DA46-B47A-F8421393D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{525879D4-0A07-AB42-A8AA-2A5D593D6D37}"/>
+    <workbookView xWindow="2620" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{525879D4-0A07-AB42-A8AA-2A5D593D6D37}"/>
   </bookViews>
   <sheets>
     <sheet name="calendar_ds_v3" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="meeting_ds_v3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
